--- a/POM_jepetstore_reg.xlsx
+++ b/POM_jepetstore_reg.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
     <t>Repeat Password</t>
   </si>
   <si>
-    <t>jerin</t>
+    <t>jerina</t>
   </si>
 </sst>
 </file>
